--- a/visium-hd/latest/visium-hd.xlsx
+++ b/visium-hd/latest/visium-hd.xlsx
@@ -29,73 +29,72 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, this
-is the area of the FOV (aka ROI) region being captured. For Xenium this is the
-total area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is
-the number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
@@ -145,37 +144,40 @@
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) The manufacturer of the instrument used to prepare
-(staining/processing) the sample for the assay. If an automatic slide staining
-method was indicated this field should list the manufacturer of the instrument.</t>
+        <t>(Required) The company that manufactures the instrument used to prepare the
+sample (e.g., for staining or other processing steps) prior to the assay. If the
+instrument was custom-built or developed internally, enter "In-House". If no
+sample preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of a staining system instrument may offer various
-versions (models) of that instrument with different features. Differences in
-features or sensitivities may be relevant to processing or interpretation of the
-data.</t>
+        <t>(Required) The specific model of the instrument used for sample preparation,
+such as staining. Manufacturers may offer multiple models with varying features
+or sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>A semicolon separated list of non-shared files to be included in the dataset.
-The path assumes the files are located in the "TOP/non-global/" directory. For
-example, for the file is
-TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
-field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
-these files will be copied to the appropriate locations within the respective
-dataset directory tree. This field is used for internal HuBMAP processing.
-Examples for GeoMx and PhenoCycler are provided in the File Locations
-documentation:
-https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
+        <t>Specifies a semicolon-separated list of non-global files that are to be included
+in the dataset. The file paths assume that the files are located in the
+"TOP/non-global/" directory. For instance, if the file is located at
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson, the value for
+this field would be "./lab_processed/images/1-tissue-boundary.geojson". Once
+ingested, these files will be copied to their appropriate locations within the
+respective dataset directory tree. This field is intended for internal HuBMAP
+processing. Examples for GeoMx and PhenoCycler are provided in the File
+Locations documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee
+Example: ./lab_processed/images/1-tissue-boundary.geojson</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -184,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="200">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -210,6 +212,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
     <t>Visium (no probes)</t>
   </si>
   <si>
@@ -771,7 +779,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-08-15T09:11:02-07:00</t>
+    <t>2025-10-21T13:33:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -907,66 +915,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s" s="21">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$49</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1032,30 +1040,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1461,6 +1469,14 @@
       </c>
       <c r="B49" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1478,18 +1494,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1507,18 +1523,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1536,10 +1552,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1557,62 +1573,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1630,10 +1646,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1651,74 +1667,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1736,146 +1752,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
